--- a/pred_ohlcv/54_21/2020-01-14 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 OCN ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-34731559.5251089</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-38309726.0100089</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-50077554.0292089</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-108528519.5903778</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-108528519.5903778</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-104671383.3657778</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-93528221.2027778</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-94232802.9321778</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-94549339.2120778</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-94551017.4329778</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-93281025.81127779</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-93432355.81127779</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-93506725.6205778</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-93591210.7467778</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-93664229.15977781</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-93490173.2590778</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-92861441.21967781</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-92490870.2582778</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-94356110.37647781</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-94755756.3885778</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-96330756.26837781</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-96318345.26837781</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-96322789.26837781</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-96308239.66217782</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-96307128.66217782</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-96807128.66217782</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-96644181.62767781</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-97144370.54327781</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-97094370.54327781</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-97019370.54327781</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-97187460.54327781</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-96300816.52167782</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-96895842.01597781</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-95487559.48857781</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-95237559.48857781</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-95176394.30547781</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-99631581.56225504</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-99482732.54375504</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-99482732.54375504</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-92626362.72635503</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-94236598.80925503</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-94311999.35475503</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-94265470.73575503</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-94269868.73575503</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-102708894.077955</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-103111192.801555</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-102757270.313255</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-86495880.94245502</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-86495880.94245502</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-86634487.12935503</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-86634487.12935503</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-86634487.12935503</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-86623065.12935503</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-86803592.22015503</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-86803592.22015503</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-83481437.79865503</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-83431437.79865503</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-83448073.83855504</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-79820302.48795503</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-79907431.39715503</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-79898543.39715503</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-79900160.66975503</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-79843433.66975503</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 OCN ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-34731559.5251089</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-38309726.0100089</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-38309726.0100089</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-59934048.91245929</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-59934048.91245929</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-64612785.70405929</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-64612785.70405929</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-63279754.65155929</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-63279754.65155929</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-63452596.68355929</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-62508085.84315929</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-62508085.84315929</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-59030641.48145929</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-59030641.48145929</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-58803731.85913169</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-60608755.99000409</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-58914735.37480409</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-58822653.73630409</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-61524948.14770409</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-61522081.12540409</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-63133805.72230409</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-63126199.40530409</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-63126199.40530409</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-63126199.40530409</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-64772594.00360409</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-65540530.84640409</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-67282437.41500409</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-65956961.42940409</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-65687589.08195335</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-65909958.83675335</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-70612537.86580262</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-70554670.86580262</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-71632560.43450262</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-71858067.46050261</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-68415116.19770262</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-68668116.19770262</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-70256149.63480261</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-70362579.63480261</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-69668712.9584026</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-69656634.3481026</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-68464556.2284026</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-68459479.89610259</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-69012950.21540259</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-69012950.21540259</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-70570929.27610259</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-71690850.61050259</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-71189563.75420259</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-64291021.46460259</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-64383103.10310259</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-64333103.10310259</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-64333103.10310259</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-65943889.02380259</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-68149766.13290259</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-70996438.8655026</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-72484726.36610259</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-70463708.25960259</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-71295540.12130259</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-71950055.69190259</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-71825055.69190259</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-71775055.69190259</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-73851458.91870259</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-73839495.91870259</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-73839495.91870259</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-74873404.73640259</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-74474561.72000259</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-74469661.72000259</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-74465257.03480259</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-74502897.03480259</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-74729448.37390259</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-72206020.11950259</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-72439407.16250259</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-72416459.16250259</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-72416459.16250259</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-75288061.27950259</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-74060273.33540258</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-72889033.49560258</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-73312258.73560257</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-73305958.73560257</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-108528519.5903778</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-108528519.5903778</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-104671383.3657778</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-93528221.2027778</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-94232802.9321778</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-94549339.2120778</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-94551017.4329778</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-93281025.81127779</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-93432355.81127779</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-93506725.6205778</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-93591210.7467778</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-93664229.15977781</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-93490173.2590778</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-92861441.21967781</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-92490870.2582778</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-94356110.37647781</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-94755756.3885778</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-96330756.26837781</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-96318345.26837781</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-96322789.26837781</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-96308239.66217782</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-96307128.66217782</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-96807128.66217782</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-96644181.62767781</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-97144370.54327781</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-97094370.54327781</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-97019370.54327781</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-97187460.54327781</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-96300816.52167782</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-96895842.01597781</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-95487559.48857781</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-95237559.48857781</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-95176394.30547781</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-99631581.56225504</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-99628247.56225504</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-99482732.54375504</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-99482732.54375504</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-101368782.569055</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-92626362.72635503</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-94236598.80925503</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-94265470.73575503</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-94269868.73575503</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-102708894.077955</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-103111192.801555</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-102757270.313255</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-86495880.94245502</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-86623065.12935503</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-86803592.22015503</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-86803592.22015503</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-83481437.79865503</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-83431437.79865503</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-83448073.83855504</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-79820302.48795503</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-79907431.39715503</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-79898543.39715503</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-79900160.66975503</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
